--- a/California/Overlays/CAov_Overlay Schema Mapping to WaDE.xlsx
+++ b/California/Overlays/CAov_Overlay Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\California\Regulatory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\California\Overlays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D10B5A1-2492-4433-88E2-010B667B47FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02E130D-CA53-4574-A4B9-8AEB02CCD7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-28920" yWindow="2475" windowWidth="29040" windowHeight="15720" tabRatio="645" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="172">
   <si>
     <t>Name</t>
   </si>
@@ -459,13 +459,16 @@
     <t>Surface Water and Groundwater</t>
   </si>
   <si>
-    <t>*Simple, Create this file by hand</t>
-  </si>
-  <si>
     <t>State Web Feature Service / File Input Name</t>
   </si>
   <si>
     <t>*This file created automatically with python scripts.</t>
+  </si>
+  <si>
+    <t>*Create organization.csv file by hand</t>
+  </si>
+  <si>
+    <t>*Create date.csv file by hand</t>
   </si>
   <si>
     <t>CA</t>
@@ -477,54 +480,10 @@
     <t>Sustainable Groundwater Management Act (SGMA) Basin Prioritization</t>
   </si>
   <si>
-    <t>https://data.cnra.ca.gov/dataset/sgma-basin-prioritization</t>
+    <t xml:space="preserve">Each basin’s priority (e.g., high, medium, low, or very low) determines which provisions of California Statewide Groundwater Elevation Monitoring (CASGEM) and the Sustainable Groundwater Management Act (SGMA) apply. </t>
   </si>
   <si>
-    <t>https://water.ca.gov/programs/groundwater-management/sgma-groundwater-management</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Each basin’s priority (e.g., high, medium, low, or very low) determines which provisions of California Statewide Groundwater Elevation Monitoring (CASGEM) and the Sustainable Groundwater Management Act (SGMA) apply. 
-SGMA requires </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>medium</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>high</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-priority basins to develop groundwater sustainability agencies (GSAs), develop groundwater sustainability plans (GSPs) and manage groundwater for long-term sustainability.</t>
-    </r>
+    <t>SGMA requires medium- and high-priority basins to develop groundwater sustainability agencies (GSAs), develop groundwater sustainability plans (GSPs) and manage groundwater for long-term sustainability.</t>
   </si>
   <si>
     <t>Jennifer.Stricklin@water.ca.gov</t>
@@ -542,25 +501,22 @@
     <t>https://water.ca.gov/</t>
   </si>
   <si>
-    <t>CAre_O1</t>
-  </si>
-  <si>
-    <t>CAre_RU + counter</t>
-  </si>
-  <si>
-    <t>*create WKT</t>
-  </si>
-  <si>
-    <t>SGMA Basin Summary</t>
-  </si>
-  <si>
-    <t>Basin_Subbasin_Name</t>
-  </si>
-  <si>
-    <t>Basin_Subbasin_Number</t>
+    <t>CAov_O1</t>
   </si>
   <si>
     <t>(blank)</t>
+  </si>
+  <si>
+    <t>Sustainable Groundwater Management Act Basin</t>
+  </si>
+  <si>
+    <t>CAov_RU + 'Basin_Subbasin_Number</t>
+  </si>
+  <si>
+    <t>*geometry</t>
+  </si>
+  <si>
+    <t>2019_SGMA_Basins</t>
   </si>
   <si>
     <t>CAre_RO + counter</t>
@@ -587,16 +543,19 @@
     <t>Groundwater</t>
   </si>
   <si>
-    <t>*get from reportingunit.csv</t>
+    <t>SGMA Basin Prioritization Statewide Summary Table: https://data.cnra.ca.gov/dataset/sgma-basin-prioritization/resource/6347629e-340d-4faf-ae7f-159efbfbcdc9</t>
   </si>
   <si>
-    <t>*get from regulatoryoverlay.csv</t>
+    <t>SGMA 2019 Basin Prioritization: https://data.cnra.ca.gov/dataset/sgma-basin-prioritization/resource/b4c5239c-9ec3-4034-9b95-8658c66d55bf</t>
   </si>
   <si>
-    <t>Sustainable Groundwater Management Act Basin</t>
+    <t>SGMA Basin Summary Table</t>
   </si>
   <si>
-    <t>CAre_RU + 'Basin_Subbasin_Number</t>
+    <t>Basin_Subb</t>
+  </si>
+  <si>
+    <t>Basin_Name</t>
   </si>
 </sst>
 </file>
@@ -606,7 +565,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -750,13 +709,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -927,7 +879,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1103,6 +1055,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1136,6 +1094,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1269,32 +1230,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1316,9 +1255,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1356,7 +1295,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1462,7 +1401,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1604,7 +1543,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1616,117 +1555,117 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" style="65" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" style="67" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.77734375" customWidth="1"/>
     <col min="3" max="3" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="69" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="70" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="68" t="s">
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="70" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="68" t="s">
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="70" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="117" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="68"/>
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="70"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
-      <c r="B6" s="117" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="68"/>
+      <c r="A6" s="71"/>
+      <c r="B6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="70"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
-      <c r="C7" s="68"/>
+      <c r="A7" s="71"/>
+      <c r="C7" s="70"/>
     </row>
-    <row r="8" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="69" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="118" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="68"/>
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="70"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="70"/>
-      <c r="C9" s="68"/>
+      <c r="A9" s="72"/>
+      <c r="B9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="70"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
-      <c r="C10" s="68"/>
+      <c r="A10" s="72"/>
+      <c r="C10" s="70"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="70"/>
-      <c r="C11" s="68"/>
+      <c r="A11" s="72"/>
+      <c r="C11" s="70"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="70"/>
-      <c r="C12" s="68"/>
+      <c r="A12" s="72"/>
+      <c r="C12" s="70"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="72" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{FD8E215F-9DA8-4DCB-ADD7-1F01C02A7CD4}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{06DB1657-40A8-40C0-8701-A874A77B11F2}"/>
-  </hyperlinks>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1736,7 +1675,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3:H4"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1756,26 +1695,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="80" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>130</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>113</v>
@@ -1811,7 +1750,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
-      <c r="K2" s="79" t="s">
+      <c r="K2" s="82" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1834,10 +1773,10 @@
       <c r="F3" s="52">
         <v>44434</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="31" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="56" t="s">
@@ -1869,10 +1808,8 @@
       <c r="F4" s="45">
         <v>2021</v>
       </c>
-      <c r="G4" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="14" t="s">
+      <c r="G4" s="46"/>
+      <c r="H4" s="31" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="56" t="s">
@@ -1886,8 +1823,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="F7" s="75" t="s">
-        <v>139</v>
+      <c r="F7" s="78" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1929,7 +1866,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1968,7 +1905,7 @@
         <v>130</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>113</v>
@@ -2008,13 +1945,13 @@
       <c r="H2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="72" t="s">
+      <c r="K2" s="74" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2034,7 +1971,7 @@
       <c r="E3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="119" t="s">
+      <c r="F3" s="75" t="s">
         <v>153</v>
       </c>
       <c r="G3" s="24" t="s">
@@ -2043,13 +1980,13 @@
       <c r="H3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="73" t="s">
+      <c r="I3" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="K3" s="72" t="s">
+      <c r="K3" s="74" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2069,7 +2006,7 @@
       <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="122" t="s">
+      <c r="F4" s="121" t="s">
         <v>148</v>
       </c>
       <c r="G4" s="31" t="s">
@@ -2078,13 +2015,13 @@
       <c r="H4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="73" t="s">
+      <c r="I4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="74" t="s">
+      <c r="J4" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="74" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2104,7 +2041,7 @@
       <c r="E5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="120" t="s">
+      <c r="F5" s="20" t="s">
         <v>149</v>
       </c>
       <c r="G5" s="31" t="s">
@@ -2113,17 +2050,17 @@
       <c r="H5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="J5" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="72" t="s">
+      <c r="K5" s="74" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -2139,8 +2076,8 @@
       <c r="E6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="121" t="s">
-        <v>143</v>
+      <c r="F6" s="20" t="s">
+        <v>144</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>8</v>
@@ -2148,13 +2085,13 @@
       <c r="H6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="J6" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="K6" s="72" t="s">
+      <c r="K6" s="74" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2174,7 +2111,7 @@
       <c r="E7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="120" t="s">
+      <c r="F7" s="20" t="s">
         <v>150</v>
       </c>
       <c r="G7" s="31" t="s">
@@ -2183,13 +2120,13 @@
       <c r="H7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="73" t="s">
+      <c r="I7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="74" t="s">
+      <c r="J7" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="K7" s="72" t="s">
+      <c r="K7" s="74" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2209,7 +2146,7 @@
       <c r="E8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="120" t="s">
+      <c r="F8" s="20" t="s">
         <v>151</v>
       </c>
       <c r="G8" s="31" t="s">
@@ -2218,13 +2155,13 @@
       <c r="H8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="73" t="s">
+      <c r="I8" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="74" t="s">
+      <c r="J8" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="K8" s="72" t="s">
+      <c r="K8" s="74" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2244,7 +2181,7 @@
       <c r="E9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="122" t="s">
+      <c r="F9" s="121" t="s">
         <v>152</v>
       </c>
       <c r="G9" s="31" t="s">
@@ -2253,13 +2190,13 @@
       <c r="H9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="73" t="s">
+      <c r="I9" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="74" t="s">
+      <c r="J9" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="K9" s="72" t="s">
+      <c r="K9" s="74" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2280,7 +2217,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G10" s="31" t="s">
         <v>8</v>
@@ -2288,19 +2225,19 @@
       <c r="H10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="73" t="s">
+      <c r="I10" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="74" t="s">
+      <c r="J10" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="K10" s="72" t="s">
+      <c r="K10" s="74" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="F12" s="75" t="s">
-        <v>139</v>
+      <c r="F12" s="78" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -2332,8 +2269,8 @@
     <sortCondition ref="A5:A11"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1" xr:uid="{151CA5AC-B095-4F50-84DB-97D14C234938}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{427B8467-EE0A-40C4-8261-C4BDB86F23FC}"/>
+    <hyperlink ref="F9" r:id="rId1" xr:uid="{4C79295A-A59D-467C-A4DC-6F41DB9CD7E8}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{6D918021-8B60-4496-8771-2B608DEFC9A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2346,7 +2283,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2385,7 +2322,7 @@
         <v>130</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>113</v>
@@ -2425,13 +2362,13 @@
       <c r="H2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="J2" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="79" t="s">
+      <c r="K2" s="82" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2452,7 +2389,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>8</v>
@@ -2460,13 +2397,13 @@
       <c r="H3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="81" t="s">
+      <c r="I3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="79" t="s">
+      <c r="K3" s="82" t="s">
         <v>87</v>
       </c>
       <c r="L3" s="10"/>
@@ -2488,22 +2425,22 @@
       <c r="E4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="63">
         <v>4326</v>
       </c>
       <c r="G4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="81" t="s">
+      <c r="I4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="79">
+      <c r="J4" s="82">
         <v>4326</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="82" t="s">
         <v>88</v>
       </c>
       <c r="L4" s="10"/>
@@ -2525,22 +2462,22 @@
       <c r="E5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="G5" s="46" t="s">
+      <c r="F5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="G5" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="79" t="s">
+      <c r="J5" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="79" t="s">
+      <c r="K5" s="82" t="s">
         <v>89</v>
       </c>
       <c r="L5" s="10"/>
@@ -2562,22 +2499,22 @@
       <c r="E6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="H6" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="I6" s="81" t="s">
+      <c r="G6" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="I6" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="78" t="s">
+      <c r="J6" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="79" t="s">
+      <c r="K6" s="82" t="s">
         <v>90</v>
       </c>
       <c r="L6" s="10"/>
@@ -2599,22 +2536,22 @@
       <c r="E7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="H7" s="62" t="s">
+      <c r="G7" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="I7" s="81" t="s">
+      <c r="H7" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="I7" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="78">
+      <c r="J7" s="81">
         <v>48001</v>
       </c>
-      <c r="K7" s="79" t="s">
+      <c r="K7" s="82" t="s">
         <v>91</v>
       </c>
       <c r="L7" s="10"/>
@@ -2636,26 +2573,26 @@
       <c r="E8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="61" t="s">
-        <v>159</v>
+      <c r="F8" s="63" t="s">
+        <v>154</v>
       </c>
       <c r="G8" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="62" t="s">
+      <c r="H8" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="81" t="s">
+      <c r="I8" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="82"/>
-      <c r="K8" s="79" t="s">
+      <c r="J8" s="85"/>
+      <c r="K8" s="82" t="s">
         <v>92</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>46</v>
       </c>
@@ -2671,22 +2608,22 @@
       <c r="E9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="G9" s="46" t="s">
+      <c r="F9" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="81" t="s">
+      <c r="I9" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="78" t="s">
+      <c r="J9" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="79" t="s">
+      <c r="K9" s="82" t="s">
         <v>93</v>
       </c>
       <c r="L9" s="10"/>
@@ -2708,22 +2645,22 @@
       <c r="E10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="61" t="s">
-        <v>159</v>
+      <c r="F10" s="120">
+        <v>43817</v>
       </c>
       <c r="G10" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="62" t="s">
+      <c r="H10" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="81" t="s">
+      <c r="I10" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="85" t="s">
+      <c r="J10" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="79" t="s">
+      <c r="K10" s="82" t="s">
         <v>94</v>
       </c>
       <c r="L10" s="10"/>
@@ -2745,22 +2682,22 @@
       <c r="E11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="61" t="s">
-        <v>154</v>
+      <c r="F11" s="63" t="s">
+        <v>143</v>
       </c>
       <c r="G11" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="62" t="s">
+      <c r="H11" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="81" t="s">
+      <c r="I11" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="78" t="s">
+      <c r="J11" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="79" t="s">
+      <c r="K11" s="82" t="s">
         <v>95</v>
       </c>
       <c r="L11" s="10"/>
@@ -2833,8 +2770,8 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2854,26 +2791,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="111" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>130</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>113</v>
@@ -2908,7 +2845,7 @@
       <c r="G2" s="32"/>
       <c r="H2" s="33"/>
       <c r="I2" s="33"/>
-      <c r="J2" s="111"/>
+      <c r="J2" s="114"/>
       <c r="K2" s="38" t="s">
         <v>84</v>
       </c>
@@ -2930,18 +2867,18 @@
         <v>8</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="G3" s="123" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="124" t="s">
+      <c r="H3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="106" t="s">
+      <c r="I3" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="109" t="s">
+      <c r="J3" s="112" t="s">
         <v>131</v>
       </c>
       <c r="K3" s="38" t="s">
@@ -2965,18 +2902,18 @@
         <v>8</v>
       </c>
       <c r="F4" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" s="64" t="s">
         <v>161</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="62" t="s">
-        <v>162</v>
       </c>
       <c r="I4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="109" t="s">
+      <c r="J4" s="112" t="s">
         <v>132</v>
       </c>
       <c r="K4" s="38" t="s">
@@ -2999,19 +2936,19 @@
       <c r="E5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="G5" s="61" t="s">
+      <c r="F5" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="66" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="109" t="s">
+      <c r="J5" s="112" t="s">
         <v>133</v>
       </c>
       <c r="K5" s="38" t="s">
@@ -3034,19 +2971,19 @@
       <c r="E6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="H6" s="62" t="s">
-        <v>157</v>
+      <c r="G6" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>171</v>
       </c>
       <c r="I6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="109" t="s">
+      <c r="J6" s="112" t="s">
         <v>134</v>
       </c>
       <c r="K6" s="38" t="s">
@@ -3069,19 +3006,19 @@
       <c r="E7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="H7" s="62" t="s">
+      <c r="G7" s="31" t="s">
         <v>158</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>170</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109" t="s">
+      <c r="J7" s="112" t="s">
         <v>135</v>
       </c>
       <c r="K7" s="38" t="s">
@@ -3104,19 +3041,19 @@
       <c r="E8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="G8" s="61" t="s">
+      <c r="F8" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="25" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="109" t="s">
+      <c r="J8" s="112" t="s">
         <v>136</v>
       </c>
       <c r="K8" s="38" t="s">
@@ -3139,24 +3076,24 @@
       <c r="E9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" s="62" t="s">
-        <v>165</v>
+      <c r="G9" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>164</v>
       </c>
       <c r="I9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="109"/>
+      <c r="J9" s="112"/>
       <c r="K9" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>61</v>
       </c>
@@ -3172,19 +3109,19 @@
       <c r="E10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="125" t="s">
-        <v>166</v>
-      </c>
-      <c r="G10" s="61" t="s">
+      <c r="F10" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="62" t="s">
+      <c r="H10" s="64" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="109" t="s">
+      <c r="J10" s="112" t="s">
         <v>132</v>
       </c>
       <c r="K10" s="48" t="s">
@@ -3207,19 +3144,19 @@
       <c r="E11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="126">
+      <c r="F11" s="120">
         <v>43466</v>
       </c>
-      <c r="G11" s="61" t="s">
+      <c r="G11" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="62" t="s">
+      <c r="H11" s="64" t="s">
         <v>8</v>
       </c>
       <c r="I11" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="110">
+      <c r="J11" s="113">
         <v>39842</v>
       </c>
       <c r="K11" s="48" t="s">
@@ -3243,9 +3180,9 @@
         <v>8</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="G12" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="63" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="47" t="s">
@@ -3254,7 +3191,7 @@
       <c r="I12" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="109"/>
+      <c r="J12" s="112"/>
       <c r="K12" s="48" t="s">
         <v>82</v>
       </c>
@@ -3276,9 +3213,9 @@
         <v>10</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="G13" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="45" t="s">
         <v>8</v>
       </c>
       <c r="H13" s="25" t="s">
@@ -3287,7 +3224,7 @@
       <c r="I13" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="109" t="s">
+      <c r="J13" s="112" t="s">
         <v>137</v>
       </c>
       <c r="K13" s="38" t="s">
@@ -3311,9 +3248,9 @@
         <v>10</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="G14" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="45" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="25" t="s">
@@ -3322,7 +3259,7 @@
       <c r="I14" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="109" t="s">
+      <c r="J14" s="112" t="s">
         <v>138</v>
       </c>
       <c r="K14" s="38" t="s">
@@ -3360,11 +3297,8 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L12">
     <sortCondition ref="A4:A12"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="F10" r:id="rId1" xr:uid="{B36A3985-BC19-4A2E-8525-6A7E0078593E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3374,7 +3308,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3394,26 +3328,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="111" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>130</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>113</v>
@@ -3429,19 +3363,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="116" t="s">
+      <c r="E2" s="119" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="32"/>
@@ -3469,15 +3403,13 @@
       <c r="E3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="52">
-        <v>45179</v>
-      </c>
+      <c r="F3" s="68"/>
       <c r="G3" s="46"/>
       <c r="H3" s="47"/>
-      <c r="I3" s="112" t="s">
+      <c r="I3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="86" t="s">
+      <c r="J3" s="89" t="s">
         <v>67</v>
       </c>
       <c r="K3" s="48" t="s">
@@ -3500,15 +3432,13 @@
       <c r="E4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="66" t="s">
-        <v>153</v>
-      </c>
+      <c r="F4" s="68"/>
       <c r="G4" s="46"/>
       <c r="H4" s="47"/>
-      <c r="I4" s="61" t="s">
+      <c r="I4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="86" t="s">
+      <c r="J4" s="89" t="s">
         <v>68</v>
       </c>
       <c r="K4" s="48" t="s">
@@ -3531,15 +3461,13 @@
       <c r="E5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="66" t="s">
-        <v>169</v>
-      </c>
+      <c r="F5" s="45"/>
       <c r="G5" s="46"/>
       <c r="H5" s="47"/>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="86" t="s">
+      <c r="J5" s="89" t="s">
         <v>69</v>
       </c>
       <c r="K5" s="48" t="s">
@@ -3562,15 +3490,13 @@
       <c r="E6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="66" t="s">
-        <v>168</v>
-      </c>
+      <c r="F6" s="45"/>
       <c r="G6" s="46"/>
       <c r="H6" s="47"/>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="86" t="s">
+      <c r="J6" s="89" t="s">
         <v>69</v>
       </c>
       <c r="K6" s="48" t="s">
@@ -3680,108 +3606,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="90" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" s="91" t="s">
+      <c r="F1" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="93" t="s">
+      <c r="I1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="92" t="s">
+      <c r="J1" s="95" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="99" t="s">
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="101"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="102" t="s">
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="63">
+      <c r="I3" s="65">
         <v>10</v>
       </c>
-      <c r="J3" s="99" t="s">
+      <c r="J3" s="102" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="104"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="102" t="s">
+      <c r="E4" s="107"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="65">
         <v>10755</v>
       </c>
-      <c r="J4" s="99" t="s">
+      <c r="J4" s="102" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3789,8 +3715,8 @@
       <c r="A5"/>
     </row>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="E7" s="75" t="s">
-        <v>141</v>
+      <c r="E7" s="78" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
